--- a/task 2 graph.xlsx
+++ b/task 2 graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="3">
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -463,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +479,24 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="K4" s="4" t="s">
         <v>0</v>
       </c>
@@ -522,7 +540,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
@@ -537,7 +557,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
@@ -552,7 +574,9 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
@@ -567,7 +591,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
@@ -580,54 +606,120 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>0.3</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>0.2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
